--- a/biology/Mycologie/Cortinarius_albidus/Cortinarius_albidus.xlsx
+++ b/biology/Mycologie/Cortinarius_albidus/Cortinarius_albidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius albidus est une espèce de champignons basidiomycètes de la famille des Cortinariaceae. 
 Elle est présente dans la province de Québec située à l’est du Canada. L’espèce a été cueillie dans la région de Montréal sous feuillus (principalement chênes, hêtres et peupliers).[réf. nécessaire]
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau 5-11 cm subhémisphérique à convexe, blanc, blanchâtre puis crème, visqueux, brillant, marge parfois gondolée. Lames : serrées, épaisses, blanchâtres puis brunâtres. Pied : 4,5 x 1,6-2 cm droit, blanchâtre, avec bulbe marginé de 2-3 cm, orné de mycélium blanchâtre à la base, parfois les pieds sont composés de 2 à 3 sujets réunis.  Chair: épaisse, dure, blanche, immuable à la coupe. Odeur nulle. Saveur douce. Cortine blanche. Spores : 9,5-12 x 5,5-7µm. verruqueuses, ellipsoïdes.
 </t>
